--- a/upload_files/delta.ai.xlsx
+++ b/upload_files/delta.ai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/STI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A380A0B2-82A3-7E4D-84E4-2C880136DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710BC8E8-BEE5-CF41-B9FB-2037679F4BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33300" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,7 +856,7 @@
   <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
